--- a/antimalware_report/pie.xlsx
+++ b/antimalware_report/pie.xlsx
@@ -14,28 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
-  <si>
-    <t>Ransom_PETYA.A</t>
-  </si>
-  <si>
-    <t>Eicar_test_file</t>
-  </si>
-  <si>
-    <t>Ransom_PETYA.E</t>
-  </si>
-  <si>
-    <t>Trojan.Win32.KILLAV.AF</t>
-  </si>
-  <si>
-    <t>TSPY_INFOSTEAL.XXF</t>
-  </si>
-  <si>
-    <t>Ransom_CERBER.AUSKR</t>
-  </si>
-  <si>
-    <t>TrojanSpy.Win32.LOKI.SM.hp</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Variant Distribution</t>
   </si>
@@ -50,21 +29,6 @@
   </si>
   <si>
     <t>no_malwares_variants</t>
-  </si>
-  <si>
-    <t>k8sn2, k8sn1, k8sn3</t>
-  </si>
-  <si>
-    <t>k8sn2, k8sn3</t>
-  </si>
-  <si>
-    <t>k8sn2, k8sn1</t>
-  </si>
-  <si>
-    <t>k8sn2</t>
-  </si>
-  <si>
-    <t>k8sn1</t>
   </si>
 </sst>
 </file>
@@ -174,61 +138,20 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>'Variant Distribution'!AB1:AH1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Ransom_PETYA.A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Eicar_test_file</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Ransom_PETYA.E</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Trojan.Win32.KILLAV.AF</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>TSPY_INFOSTEAL.XXF</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Ransom_CERBER.AUSKR</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>TrojanSpy.Win32.LOKI.SM.hp</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:numRef>
+              <c:f>'Variant Distribution'!AB1:AA1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Variant Distribution'!AB2:AH2</c:f>
+              <c:f>'Variant Distribution'!AB2:AA2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
+                <c:ptCount val="0"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -580,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH42"/>
+  <dimension ref="A2:AA34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -590,141 +513,41 @@
     <col min="2" max="2" width="77.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="27:34">
-      <c r="AB1" s="3" t="s">
+    <row r="2" spans="27:27">
+      <c r="AA2" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="27:34">
-      <c r="AA2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB2">
-        <v>3</v>
-      </c>
-      <c r="AC2">
-        <v>3</v>
-      </c>
-      <c r="AD2">
-        <v>2</v>
-      </c>
-      <c r="AE2">
-        <v>2</v>
-      </c>
-      <c r="AF2">
-        <v>1</v>
-      </c>
-      <c r="AG2">
-        <v>1</v>
-      </c>
-      <c r="AH2">
-        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B31" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B32" s="2">
-        <v>2684</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
